--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62641.67837727944</v>
+        <v>54997.61652324912</v>
       </c>
     </row>
     <row r="7">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>30.70785528783182</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="G8" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>104.8891084057992</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796774</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>102.0626436801678</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809192</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>104.8891084057995</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="W9" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>82.66219243742792</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>104.8891084057995</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.083910542461</v>
+        <v>22.22691596837125</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>358.1858483734973</v>
+        <v>416.0928431374219</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>108.1143338278311</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>143.9351058223816</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>416.8518207422437</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>143.0919853429987</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>37.64499605673969</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>96.2681189135765</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>257.6351509699958</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>358.0685425954623</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2004,22 +2004,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>82.1704359115499</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>17.75123914303118</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>338.5573249303525</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>115.0329165038724</v>
       </c>
     </row>
     <row r="21">
@@ -2241,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>55.96684102370093</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>49.34995949258617</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,13 +2326,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>109.5540470185014</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>158.6851702988635</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>53.19117033386377</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>86.38976318987905</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>243.0555568802981</v>
       </c>
       <c r="D26" t="n">
-        <v>65.8149242711323</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,13 +2715,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>107.2732942949004</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>94.13208900787961</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>21.9769230597925</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>93.53818910684689</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>54.3166146207495</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>63.62546569681959</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3031,19 +3031,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>237.9984165527103</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>174.8494880357969</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3189,13 +3189,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>165.8964171517374</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,7 +3204,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>212.0853544741093</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>179.1735387309205</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>109.5540470185009</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3426,16 +3426,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>63.62546569681869</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
@@ -3444,7 +3444,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>247.5475554488484</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>109.5540470185014</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>116.6395830120788</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>49.34995949258614</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>49.34995949258681</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>149.6157531058523</v>
+        <v>153.7993307505936</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>49.34995949258614</v>
+        <v>74.42811009354939</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>116.6395830120781</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>109.5540470185014</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258614</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160.8315268133896</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="C8" t="n">
-        <v>160.8315268133896</v>
+        <v>356.0488638441244</v>
       </c>
       <c r="D8" t="n">
-        <v>160.8315268133896</v>
+        <v>356.0488638441244</v>
       </c>
       <c r="E8" t="n">
-        <v>160.8315268133896</v>
+        <v>356.0488638441244</v>
       </c>
       <c r="F8" t="n">
-        <v>129.813491169115</v>
+        <v>235.7620855184066</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396878</v>
+        <v>115.4753071926889</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396842</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585576</v>
+        <v>23.57954741585572</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558039</v>
+        <v>55.41632306558022</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318071</v>
+        <v>103.1313969318067</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183096</v>
+        <v>162.326165318309</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590932</v>
+        <v>228.1917507590924</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326582</v>
+        <v>295.1231102326572</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336424</v>
+        <v>358.3244950336411</v>
       </c>
       <c r="P8" t="n">
-        <v>412.265414745567</v>
+        <v>412.2654147455656</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245013</v>
+        <v>452.7727990244996</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="S8" t="n">
-        <v>401.4050834648259</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="T8" t="n">
-        <v>281.1183051391077</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="U8" t="n">
-        <v>281.1183051391077</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="V8" t="n">
-        <v>281.1183051391077</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="W8" t="n">
-        <v>281.1183051391077</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="X8" t="n">
-        <v>160.8315268133896</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="Y8" t="n">
-        <v>160.8315268133896</v>
+        <v>476.3356421698421</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.526712843396878</v>
+        <v>235.7620855184066</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396878</v>
+        <v>132.6685060434897</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396878</v>
+        <v>132.6685060434897</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396878</v>
+        <v>132.6685060434897</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396878</v>
+        <v>49.28466765965131</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396878</v>
+        <v>49.28466765965131</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396842</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160444</v>
+        <v>16.43678475114677</v>
       </c>
       <c r="J9" t="n">
-        <v>67.70899752367932</v>
+        <v>35.39855022437496</v>
       </c>
       <c r="K9" t="n">
-        <v>100.1176749029953</v>
+        <v>67.80722760369076</v>
       </c>
       <c r="L9" t="n">
-        <v>143.6951411186846</v>
+        <v>111.38469381938</v>
       </c>
       <c r="M9" t="n">
-        <v>194.5479887761005</v>
+        <v>162.2375414767957</v>
       </c>
       <c r="N9" t="n">
-        <v>246.7467599936375</v>
+        <v>214.4363126943324</v>
       </c>
       <c r="O9" t="n">
-        <v>294.4984377999702</v>
+        <v>262.1879905006649</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018323</v>
+        <v>300.5129218025269</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328075</v>
+        <v>358.4425707328062</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="U9" t="n">
-        <v>370.3870478205513</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="V9" t="n">
-        <v>250.1002694948332</v>
+        <v>356.0488638441244</v>
       </c>
       <c r="W9" t="n">
-        <v>129.813491169115</v>
+        <v>356.0488638441244</v>
       </c>
       <c r="X9" t="n">
-        <v>9.526712843396878</v>
+        <v>235.7620855184066</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.526712843396878</v>
+        <v>235.7620855184066</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396878</v>
+        <v>333.5974335730423</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396878</v>
+        <v>213.3106552473246</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396878</v>
+        <v>213.3106552473246</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396878</v>
+        <v>213.3106552473246</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396878</v>
+        <v>213.3106552473246</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396878</v>
+        <v>213.3106552473246</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396878</v>
+        <v>93.02387692160686</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396842</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642511</v>
+        <v>21.42271513642502</v>
       </c>
       <c r="K10" t="n">
-        <v>139.3157865734615</v>
+        <v>40.97150121137683</v>
       </c>
       <c r="L10" t="n">
-        <v>257.2088580104978</v>
+        <v>158.8645726484127</v>
       </c>
       <c r="M10" t="n">
-        <v>283.5844228219528</v>
+        <v>185.2401374598677</v>
       </c>
       <c r="N10" t="n">
-        <v>309.3328356544774</v>
+        <v>210.9885502923922</v>
       </c>
       <c r="O10" t="n">
-        <v>333.1156624066959</v>
+        <v>328.8816217294281</v>
       </c>
       <c r="P10" t="n">
-        <v>451.0087338437322</v>
+        <v>446.774693166464</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="T10" t="n">
-        <v>356.0488638441257</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="U10" t="n">
-        <v>250.1002694948332</v>
+        <v>476.3356421698421</v>
       </c>
       <c r="V10" t="n">
-        <v>129.813491169115</v>
+        <v>453.88421189876</v>
       </c>
       <c r="W10" t="n">
-        <v>129.813491169115</v>
+        <v>453.88421189876</v>
       </c>
       <c r="X10" t="n">
-        <v>9.526712843396878</v>
+        <v>333.5974335730423</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396878</v>
+        <v>333.5974335730423</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1106.599419841793</v>
+        <v>1337.186882365126</v>
       </c>
       <c r="C11" t="n">
-        <v>744.7955325958366</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D11" t="n">
-        <v>744.7955325958366</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E11" t="n">
-        <v>744.7955325958366</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="X11" t="n">
-        <v>1941.185114027048</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="Y11" t="n">
-        <v>1532.898990326701</v>
+        <v>1337.186882365126</v>
       </c>
     </row>
     <row r="12">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>490.9121334915891</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>490.9121334915891</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>321.1541297423263</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>744.992999204955</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827553</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P13" t="n">
         <v>2274.089213540314</v>
@@ -5229,22 +5229,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2215.901038951972</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1928.945530822402</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1656.919126408694</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>880.4839877111824</v>
+        <v>1729.41386249616</v>
       </c>
       <c r="C14" t="n">
-        <v>880.4839877111824</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D14" t="n">
-        <v>880.4839877111824</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E14" t="n">
-        <v>446.7092428694776</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
         <v>446.7092428694776</v>
@@ -5275,13 +5275,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
         <v>805.4408022867025</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V14" t="n">
-        <v>1704.481905720839</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W14" t="n">
-        <v>1299.626451131872</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X14" t="n">
-        <v>880.4839877111824</v>
+        <v>1729.41386249616</v>
       </c>
       <c r="Y14" t="n">
-        <v>880.4839877111824</v>
+        <v>1729.41386249616</v>
       </c>
     </row>
     <row r="15">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>663.4738450083642</v>
+        <v>625.4485964662028</v>
       </c>
       <c r="C16" t="n">
-        <v>490.9121334915891</v>
+        <v>452.8868849494278</v>
       </c>
       <c r="D16" t="n">
-        <v>393.6716093364613</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.801244395024</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>716.4307943255671</v>
+        <v>706.9467691017966</v>
       </c>
       <c r="C17" t="n">
-        <v>716.4307943255671</v>
+        <v>706.9467691017966</v>
       </c>
       <c r="D17" t="n">
-        <v>716.4307943255671</v>
+        <v>706.9467691017966</v>
       </c>
       <c r="E17" t="n">
-        <v>716.4307943255671</v>
+        <v>706.9467691017966</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
         <v>805.4408022867025</v>
@@ -5545,22 +5545,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1486.402314586987</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W17" t="n">
-        <v>1486.402314586987</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X17" t="n">
-        <v>1124.716918025914</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y17" t="n">
-        <v>716.4307943255671</v>
+        <v>1133.246339586704</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895474</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C19" t="n">
-        <v>471.655226289377</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D19" t="n">
-        <v>471.655226289377</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>471.655226289377</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>294.9481722511332</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G19" t="n">
-        <v>130.2069918636516</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
         <v>47.20655154895474</v>
@@ -5673,22 +5673,22 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>488.1941452900674</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L19" t="n">
-        <v>1030.274828676326</v>
+        <v>744.9929992049551</v>
       </c>
       <c r="M19" t="n">
-        <v>1160.879221014856</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N19" t="n">
-        <v>1288.378132818745</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O19" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540314</v>
@@ -5706,19 +5706,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2018.350481558492</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C20" t="n">
-        <v>1580.208008741915</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D20" t="n">
-        <v>1144.298223916359</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.350481558492</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X20" t="n">
-        <v>2018.350481558492</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y20" t="n">
-        <v>2018.350481558492</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="21">
@@ -5889,16 +5889,16 @@
         <v>616.0817647851416</v>
       </c>
       <c r="C22" t="n">
-        <v>443.5200532683665</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D22" t="n">
-        <v>443.5200532683665</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>273.7620495191038</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>97.05499548085996</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G22" t="n">
         <v>47.20655154895473</v>
@@ -5910,22 +5910,22 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>116.635590151373</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>488.1941452900667</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1030.274828676326</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M22" t="n">
-        <v>1160.879221014855</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540313</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1893.561637177626</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C23" t="n">
-        <v>1455.419164361049</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D23" t="n">
-        <v>1019.509379535494</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E23" t="n">
-        <v>585.7346346937888</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F23" t="n">
-        <v>157.8672051029966</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G23" t="n">
         <v>47.20655154895473</v>
@@ -5986,13 +5986,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
         <v>805.440802286702</v>
@@ -6019,22 +6019,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W23" t="n">
-        <v>2319.861207662534</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X23" t="n">
-        <v>2319.861207662534</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="Y23" t="n">
-        <v>2319.861207662534</v>
+        <v>921.2588091910869</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.0817647851416</v>
+        <v>528.8193777246577</v>
       </c>
       <c r="C25" t="n">
-        <v>443.5200532683665</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="D25" t="n">
-        <v>277.6420604698892</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E25" t="n">
-        <v>277.6420604698892</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F25" t="n">
-        <v>100.9350064316454</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
         <v>47.20655154895473</v>
@@ -6147,10 +6147,10 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909395</v>
       </c>
       <c r="L25" t="n">
         <v>481.9462364092375</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2273.065190387253</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>2030.817966290659</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1752.431334339402</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270316</v>
+        <v>1465.475826209833</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856608</v>
+        <v>1193.449421796124</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>948.0576671295366</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041287</v>
+        <v>720.6379964436449</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>513.1889643554698</v>
+        <v>961.9414578410198</v>
       </c>
       <c r="C26" t="n">
-        <v>513.1889643554698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D26" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V26" t="n">
-        <v>1745.473006065472</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W26" t="n">
-        <v>1340.617551476506</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X26" t="n">
-        <v>921.4750880558164</v>
+        <v>961.9414578410198</v>
       </c>
       <c r="Y26" t="n">
-        <v>513.1889643554698</v>
+        <v>961.9414578410198</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>765.0997489345755</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>858.9930882810426</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.0817647851416</v>
+        <v>858.3289888817353</v>
       </c>
       <c r="C28" t="n">
-        <v>616.0817647851416</v>
+        <v>749.9721259575934</v>
       </c>
       <c r="D28" t="n">
-        <v>616.0817647851416</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="E28" t="n">
-        <v>520.9988465953642</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F28" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>413.3628026016838</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>997.5438780199985</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N28" t="n">
-        <v>1567.301592981533</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O28" t="n">
-        <v>2104.736723555076</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6414,22 +6414,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270316</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856608</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>1277.567278286614</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041287</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1849.01926465316</v>
+        <v>339.1270151866529</v>
       </c>
       <c r="C29" t="n">
-        <v>1410.876791836583</v>
+        <v>339.1270151866529</v>
       </c>
       <c r="D29" t="n">
-        <v>974.9670070110278</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E29" t="n">
-        <v>541.1922621693229</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F29" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U29" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V29" t="n">
-        <v>1849.01926465316</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W29" t="n">
-        <v>1849.01926465316</v>
+        <v>1592.855172792597</v>
       </c>
       <c r="X29" t="n">
-        <v>1849.01926465316</v>
+        <v>1173.712709371907</v>
       </c>
       <c r="Y29" t="n">
-        <v>1849.01926465316</v>
+        <v>765.4265856715607</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.0817647851416</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C31" t="n">
-        <v>443.5200532683665</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6547859746801</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6547859746801</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F31" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>733.4227107706873</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M31" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N31" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O31" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041287</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1349.126238781879</v>
+        <v>1120.886428673516</v>
       </c>
       <c r="C32" t="n">
-        <v>910.9837659653025</v>
+        <v>1120.886428673516</v>
       </c>
       <c r="D32" t="n">
-        <v>475.073981139747</v>
+        <v>1120.886428673516</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>687.1116838318112</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422802</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6739,13 +6739,13 @@
         <v>2360.327577447737</v>
       </c>
       <c r="W32" t="n">
-        <v>2360.327577447737</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X32" t="n">
-        <v>2183.711932967134</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="Y32" t="n">
-        <v>1775.425809266787</v>
+        <v>1547.185999158424</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.0944902899325</v>
+        <v>858.3289888817353</v>
       </c>
       <c r="C34" t="n">
-        <v>554.5327787731575</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6547859746801</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E34" t="n">
-        <v>388.6547859746801</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F34" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>320.0013704257355</v>
       </c>
       <c r="L34" t="n">
-        <v>744.992999204955</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M34" t="n">
-        <v>875.5973915434845</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N34" t="n">
-        <v>1445.355106505019</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O34" t="n">
-        <v>1982.790237078562</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2001.673408170042</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U34" t="n">
-        <v>1723.286776218785</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V34" t="n">
-        <v>1436.331268089216</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W34" t="n">
-        <v>1164.304863675507</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X34" t="n">
-        <v>918.9131090089197</v>
+        <v>1277.567278286614</v>
       </c>
       <c r="Y34" t="n">
-        <v>918.9131090089197</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>1525.741883262483</v>
       </c>
       <c r="C35" t="n">
         <v>1344.758510807007</v>
@@ -6925,64 +6925,64 @@
         <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>2209.200554108492</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>2209.200554108492</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>2209.200554108492</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X35" t="n">
-        <v>2209.200554108492</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.200554108492</v>
+        <v>1952.04145374739</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7022,10 +7022,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.6552262893761</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C37" t="n">
-        <v>471.6552262893761</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D37" t="n">
-        <v>471.6552262893761</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E37" t="n">
-        <v>471.6552262893761</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>744.9929992049549</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M37" t="n">
-        <v>1329.174074623269</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.320157362629</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774551</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X37" t="n">
-        <v>890.893515694255</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083632</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="38">
@@ -7162,64 +7162,64 @@
         <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O38" t="n">
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X38" t="n">
-        <v>2209.200554108492</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7259,10 +7259,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0817647851416</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C40" t="n">
-        <v>443.5200532683665</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D40" t="n">
         <v>393.6716093364613</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J40" t="n">
         <v>192.6919004158277</v>
@@ -7338,46 +7338,46 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>862.0820538119935</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M40" t="n">
-        <v>992.686446150523</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954412</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>1959.82592890043</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R40" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2310.479133515832</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856608</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.320054190021</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041287</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>1588.348011983849</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>1743.700871327883</v>
       </c>
       <c r="X41" t="n">
-        <v>2209.200554108492</v>
+        <v>1588.348011983849</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.200554108492</v>
+        <v>1588.348011983849</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
         <v>341.0245550495863</v>
@@ -7481,13 +7481,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7496,10 +7496,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.0817647851416</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C43" t="n">
-        <v>443.5200532683665</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E43" t="n">
         <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>116.6355901513737</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>488.1941452900674</v>
       </c>
       <c r="L43" t="n">
-        <v>744.992999204955</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M43" t="n">
-        <v>1329.17407462327</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N43" t="n">
-        <v>1898.931789584804</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041287</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
         <v>512.3249274228019</v>
@@ -7666,7 +7666,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7684,16 +7684,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>2202.043447044273</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662534</v>
+        <v>2202.043447044273</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851416</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>443.5200532683665</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D46" t="n">
         <v>393.6716093364613</v>
@@ -7794,37 +7794,37 @@
         <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>601.5415720081295</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M46" t="n">
-        <v>1185.722647426444</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N46" t="n">
-        <v>1755.480362387978</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7842,16 +7842,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.30987286752184</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>32.6368154538427</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946634</v>
+        <v>106.497025394663</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,10 +8613,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190349</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.81551078038297</v>
+        <v>93.81551078038262</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.0608532169874</v>
       </c>
       <c r="P10" t="n">
-        <v>98.52803488912322</v>
+        <v>98.52803488912286</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.35091287454549</v>
+        <v>15.62772163946119</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>192.4544649334027</v>
+        <v>345.6096681853605</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>263.871624324937</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>141.4680432173448</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>200.7092366734156</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475395</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>10.62967161639912</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>69.27619576520573</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042864</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>458.158265737157</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>69.27619576520605</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>45.75904403825049</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>30.81754489126217</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,16 +10518,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>192.4544649334021</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10752,13 +10752,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371566</v>
+        <v>192.4544649334023</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>158.204531747539</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>175.7179764032063</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>45.75904403825143</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>10.62967161639979</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>158.2045317475392</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11463,19 +11463,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>303.1049632594845</v>
+        <v>45.75904403825075</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>314.6771375459504</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23032,13 +23032,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>392.8809000070525</v>
+        <v>304.5048447524238</v>
       </c>
       <c r="G8" t="n">
-        <v>277.9210461097548</v>
+        <v>277.9210461097553</v>
       </c>
       <c r="H8" t="n">
-        <v>282.3584801445919</v>
+        <v>177.4693717387927</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796777</v>
       </c>
       <c r="T8" t="n">
-        <v>97.12402527515962</v>
+        <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
         <v>256.599767943293</v>
@@ -23086,7 +23086,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440214</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23102,7 +23102,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>3.329252871556349</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -23111,13 +23111,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656963</v>
+        <v>59.05530966656965</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>69.6707357918486</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615968</v>
+        <v>78.04243221616012</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167697</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>34.23485086104785</v>
+        <v>34.23485086104829</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23181,7 +23181,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>51.7521838591468</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23196,10 +23196,10 @@
         <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
-        <v>136.9920546719889</v>
+        <v>17.9081441295284</v>
       </c>
       <c r="I10" t="n">
-        <v>82.6621924374279</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616406</v>
+        <v>13.56162857616409</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
-        <v>123.6105491751608</v>
+        <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>170.7502917943958</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058129</v>
+        <v>261.8590370799026</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>123.8539265774607</v>
+        <v>123.8539265774611</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>75.57519971491365</v>
+        <v>17.66820495098898</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.82564967003022</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>99.00273129754004</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>16.90922734616726</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>215.898795222513</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>152.2554364750575</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>67.95109395691603</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,13 +23743,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>165.9536043248885</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>56.8824961910201</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>48.85018410292734</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>257.8515264887133</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>62.24957511272447</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>289.1703459594707</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>113.7438090910206</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>285.9536173888162</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>256.2658684876189</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>109.902598249743</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>56.59250992092878</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>190.7054912081128</v>
       </c>
       <c r="D26" t="n">
-        <v>365.7357627061676</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>63.56280010670687</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>73.9283347038905</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>409.5737639175074</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>330.0505661880375</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>109.902598249743</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>104.4349580149505</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>185.5903387421741</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24979,10 +24979,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>240.1015507506855</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4.939677249869959</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811443</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>27.7393973815181</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>254.5875093574904</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>146.9259375452003</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>111.3145178010427</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>36.53839759942542</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>305.396991767981</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>287.5636794512642</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>114.8692533779064</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>93.63231361822102</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -25690,10 +25690,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>265.3352856806301</v>
+        <v>261.1517080358888</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>114.8692533779064</v>
+        <v>89.79110277694313</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>242.3511975534336</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>305.396991767981</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779064</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90686.36551081081</v>
+        <v>90686.36551081046</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403939.6944661193</v>
+        <v>403939.6944661192</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>403939.6944661191</v>
+        <v>403939.6944661192</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>403939.6944661192</v>
+        <v>403939.6944661193</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>403939.6944661191</v>
+        <v>403939.6944661193</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>403939.6944661191</v>
+        <v>403939.6944661193</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>403939.6944661192</v>
+        <v>403939.6944661193</v>
       </c>
     </row>
     <row r="15">
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>34693.90071497237</v>
+        <v>34693.90071497225</v>
       </c>
       <c r="E2" t="n">
         <v>157297.5713008174</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730579</v>
+        <v>117708.4675730575</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180443</v>
+        <v>439858.2450180447</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310199</v>
+        <v>30139.06600310187</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.581559748</v>
+        <v>117374.5815597481</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4054.877516836938</v>
+        <v>4054.877516836924</v>
       </c>
       <c r="E4" t="n">
         <v>11163.53558956959</v>
@@ -26432,10 +26432,10 @@
         <v>11163.53558956959</v>
       </c>
       <c r="G4" t="n">
-        <v>11163.53558956959</v>
+        <v>11163.53558956958</v>
       </c>
       <c r="H4" t="n">
-        <v>11163.53558956959</v>
+        <v>11163.53558956958</v>
       </c>
       <c r="I4" t="n">
         <v>11163.53558956958</v>
@@ -26450,13 +26450,13 @@
         <v>11163.53558956959</v>
       </c>
       <c r="M4" t="n">
-        <v>11163.53558956958</v>
+        <v>11163.53558956959</v>
       </c>
       <c r="N4" t="n">
+        <v>11163.5355895696</v>
+      </c>
+      <c r="O4" t="n">
         <v>11163.53558956959</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11163.53558956958</v>
       </c>
       <c r="P4" t="n">
         <v>11163.53558956959</v>
@@ -26475,7 +26475,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239237</v>
+        <v>42922.56227239234</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963782</v>
@@ -26493,25 +26493,25 @@
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-129992.0066473148</v>
+        <v>-131158.9054434656</v>
       </c>
       <c r="E6" t="n">
-        <v>-339775.2905164343</v>
+        <v>-340329.1709596567</v>
       </c>
       <c r="F6" t="n">
-        <v>100082.95450161</v>
+        <v>99529.07405838807</v>
       </c>
       <c r="G6" t="n">
-        <v>100082.95450161</v>
+        <v>99529.07405838801</v>
       </c>
       <c r="H6" t="n">
-        <v>100082.95450161</v>
+        <v>99529.07405838808</v>
       </c>
       <c r="I6" t="n">
-        <v>100082.95450161</v>
+        <v>99529.07405838803</v>
       </c>
       <c r="J6" t="n">
-        <v>100082.95450161</v>
+        <v>99529.07405838807</v>
       </c>
       <c r="K6" t="n">
-        <v>100082.95450161</v>
+        <v>99529.07405838807</v>
       </c>
       <c r="L6" t="n">
-        <v>69943.88849850799</v>
+        <v>69390.00805528613</v>
       </c>
       <c r="M6" t="n">
-        <v>-17291.62705813802</v>
+        <v>-17845.50750136009</v>
       </c>
       <c r="N6" t="n">
-        <v>100082.95450161</v>
+        <v>99529.07405838808</v>
       </c>
       <c r="O6" t="n">
-        <v>100082.95450161</v>
+        <v>99529.07405838801</v>
       </c>
       <c r="P6" t="n">
-        <v>100082.95450161</v>
+        <v>99529.07405838807</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480477</v>
+        <v>94.25048217480442</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
@@ -26758,28 +26758,28 @@
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
         <v>590.0818943619342</v>
@@ -26813,25 +26813,25 @@
         <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480477</v>
+        <v>94.25048217480442</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184164</v>
+        <v>372.4514459184168</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194733</v>
+        <v>470.9979838194737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194732</v>
+        <v>470.9979838194737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194733</v>
+        <v>470.9979838194737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529837</v>
+        <v>0.3788964107529823</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623996</v>
+        <v>3.880372866623981</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555442</v>
+        <v>14.60740387555436</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214608</v>
+        <v>32.15835924214596</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931989</v>
+        <v>48.19704430931971</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990153</v>
+        <v>59.79269533990131</v>
       </c>
       <c r="M8" t="n">
-        <v>66.5308943846299</v>
+        <v>66.53089438462965</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168183</v>
+        <v>67.60743381168157</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725684</v>
+        <v>63.8397826272566</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679254</v>
+        <v>54.48577748679234</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.9165497767013</v>
+        <v>40.91654977670115</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196213</v>
+        <v>23.80085166196205</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033625</v>
+        <v>8.634101960033593</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071187</v>
+        <v>1.658619038071181</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023869</v>
+        <v>0.03031171286023858</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250518</v>
+        <v>0.202727452225051</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857737</v>
+        <v>1.95792039385773</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888846</v>
+        <v>6.979870613888819</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780632</v>
+        <v>19.15329845780625</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688479</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211048</v>
+        <v>44.01764264211031</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852686</v>
+        <v>51.3665127852684</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286556</v>
+        <v>52.72603153286536</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619467</v>
+        <v>48.23401798619448</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006274</v>
+        <v>38.7120518200626</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542942</v>
+        <v>25.87798144542932</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779752</v>
+        <v>12.58688514779747</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531113</v>
+        <v>3.765573509531098</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457128</v>
+        <v>0.8171338973457097</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0133373323832271</v>
+        <v>0.01333733238322705</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889922</v>
+        <v>0.1699598858889916</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540314</v>
+        <v>1.511097894540308</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643513</v>
+        <v>5.111157295643493</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235175</v>
+        <v>12.0161639323517</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055745</v>
+        <v>19.74624856055738</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207799</v>
+        <v>25.26839976207789</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803538</v>
+        <v>26.64198465803528</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063098</v>
+        <v>26.00849781063088</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254732</v>
+        <v>24.02305732547311</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333774</v>
+        <v>20.55587565333766</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839552</v>
+        <v>14.23182280839547</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517775</v>
+        <v>7.642014505517746</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083617</v>
+        <v>2.961937284083606</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075119</v>
+        <v>0.7261922397075092</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308676</v>
+        <v>0.009270539230308641</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,10 +32308,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -32320,7 +32320,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H19" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,10 +32414,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642302</v>
+        <v>14.19478239642297</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214608</v>
+        <v>32.15835924214596</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093199</v>
+        <v>48.19704430931971</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990153</v>
+        <v>59.79269533990131</v>
       </c>
       <c r="M8" t="n">
-        <v>66.5308943846299</v>
+        <v>66.53089438462965</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168183</v>
+        <v>67.60743381168157</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725685</v>
+        <v>63.83978262725657</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679247</v>
+        <v>54.48577748679236</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670129</v>
+        <v>40.91654977670112</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196216</v>
+        <v>23.80085166196204</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.30681320020966</v>
+        <v>6.979870613888819</v>
       </c>
       <c r="J9" t="n">
-        <v>25.46317132532816</v>
+        <v>19.15329845780625</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568848</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211047</v>
+        <v>44.0176426421103</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526861</v>
+        <v>51.36651278526841</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286556</v>
+        <v>52.72603153286536</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619466</v>
+        <v>48.23401798619449</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006281</v>
+        <v>38.71205182006258</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542944</v>
+        <v>58.51479689927203</v>
       </c>
       <c r="R9" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235175</v>
+        <v>12.0161639323517</v>
       </c>
       <c r="K10" t="n">
-        <v>119.083910542461</v>
+        <v>19.74624856055738</v>
       </c>
       <c r="L10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803537</v>
+        <v>26.64198465803528</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063096</v>
+        <v>26.00849781063087</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547319</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="P10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.58273568294101</v>
+        <v>29.85954444785665</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062841</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>324.3780935581799</v>
+        <v>477.5332968101378</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>70.4719911420766</v>
@@ -35646,13 +35646,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>395.7952529497143</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
-        <v>260.4234789221546</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35883,13 +35883,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K19" t="n">
-        <v>298.4871160345855</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L19" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36129,7 +36129,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36199,7 +36199,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.1303420226447</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247774</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
         <v>70.4719911420766</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>167.0540751263756</v>
       </c>
       <c r="L25" t="n">
-        <v>281.852445040951</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
         <v>590.0818943619341</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36600,7 +36600,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916798</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36694,10 +36694,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>575.512843395489</v>
@@ -36770,7 +36770,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>171.0631211972095</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766673</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>170.8810658749151</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,7 +37083,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>128.5954242524321</v>
       </c>
       <c r="L34" t="n">
         <v>547.5562458447062</v>
@@ -37238,16 +37238,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>294.2413903654056</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37329,7 +37329,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37396,7 +37396,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37469,16 +37469,16 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619339</v>
+        <v>324.3780935581794</v>
       </c>
       <c r="N37" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>277.1599674523491</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37633,7 +37633,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37706,22 +37706,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>300.8399982398709</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>147.5459694702547</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37800,10 +37800,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>70.13034202264538</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>277.1599674523491</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
         <v>70.4719911420766</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
@@ -38031,10 +38031,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
@@ -38183,19 +38183,19 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>422.0603989642943</v>
+        <v>164.7144797430606</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
